--- a/test/fixtures/spreadsheets/valid_spreadsheet.xlsx
+++ b/test/fixtures/spreadsheets/valid_spreadsheet.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>ID Unbounded Database</t>
   </si>
@@ -29,16 +29,25 @@
     <t>Resource Subtitle</t>
   </si>
   <si>
-    <t>URL</t>
+    <t>Resource Description</t>
   </si>
   <si>
     <t>Subtitle 1</t>
   </si>
   <si>
+    <t>Description 1</t>
+  </si>
+  <si>
+    <t>Description 2</t>
+  </si>
+  <si>
     <t>Subtitle 3</t>
   </si>
   <si>
     <t>Subtitle 4</t>
+  </si>
+  <si>
+    <t>Description 4</t>
   </si>
 </sst>
 </file>
@@ -138,10 +147,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
+      <selection pane="topLeft" activeCell="E6" activeCellId="0" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -173,18 +182,24 @@
       <c r="D2" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="E2" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="E3" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="0" t="n">
         <v>3</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -192,7 +207,15 @@
         <v>4</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="0" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
